--- a/Matriz_Precedencia.xlsx
+++ b/Matriz_Precedencia.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,21 +532,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -556,7 +554,7 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -566,7 +564,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -576,7 +574,7 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -585,13 +583,13 @@
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -636,21 +634,19 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n">
-        <v>4</v>
-      </c>
+      <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -660,7 +656,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -670,7 +666,7 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -680,7 +676,7 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -689,13 +685,13 @@
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -739,14 +735,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
       <c r="C27" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -756,46 +748,46 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="n"/>
       <c r="C28" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="n"/>
       <c r="C29" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="n"/>
       <c r="C30" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>1</v>
@@ -846,11 +838,9 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="B37" s="1" t="n"/>
       <c r="C37" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -860,7 +850,7 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="n"/>
       <c r="C38" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -870,7 +860,7 @@
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="n"/>
       <c r="C39" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -880,7 +870,7 @@
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -890,7 +880,7 @@
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="n"/>
       <c r="C41" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -899,7 +889,7 @@
     <row r="42">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>1</v>
@@ -950,11 +940,9 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="B47" s="1" t="n"/>
       <c r="C47" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -964,7 +952,7 @@
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="n"/>
       <c r="C48" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -974,7 +962,7 @@
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="n"/>
       <c r="C49" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -984,7 +972,7 @@
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="n"/>
       <c r="C50" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -994,18 +982,16 @@
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>1</v>
@@ -1031,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1051,16 +1037,14 @@
         <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="B57" s="1" t="n"/>
       <c r="C57" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1070,7 +1054,7 @@
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="n"/>
       <c r="C58" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1080,36 +1064,36 @@
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="n"/>
       <c r="C59" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="n"/>
       <c r="C61" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>1</v>
@@ -1160,11 +1144,9 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="n">
-        <v>4</v>
-      </c>
+      <c r="B67" s="1" t="n"/>
       <c r="C67" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1174,7 +1156,7 @@
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="n"/>
       <c r="C68" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1184,7 +1166,7 @@
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="n"/>
       <c r="C69" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1194,7 +1176,7 @@
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="n"/>
       <c r="C70" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1204,7 +1186,7 @@
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="n"/>
       <c r="C71" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1213,7 +1195,7 @@
     <row r="72">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>1</v>
@@ -1263,14 +1245,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B77" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
       <c r="C77" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1280,7 +1258,7 @@
       <c r="A78" s="1" t="n"/>
       <c r="B78" s="1" t="n"/>
       <c r="C78" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1290,7 +1268,7 @@
       <c r="A79" s="1" t="n"/>
       <c r="B79" s="1" t="n"/>
       <c r="C79" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1300,26 +1278,26 @@
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="n"/>
       <c r="C80" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
       <c r="B81" s="1" t="n"/>
       <c r="C81" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n"/>
       <c r="B82" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>1</v>
@@ -1355,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1365,16 +1343,14 @@
         <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="B87" s="1" t="n"/>
       <c r="C87" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1384,7 +1360,7 @@
       <c r="A88" s="1" t="n"/>
       <c r="B88" s="1" t="n"/>
       <c r="C88" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1394,7 +1370,7 @@
       <c r="A89" s="1" t="n"/>
       <c r="B89" s="1" t="n"/>
       <c r="C89" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1404,26 +1380,26 @@
       <c r="A90" s="1" t="n"/>
       <c r="B90" s="1" t="n"/>
       <c r="C90" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
       <c r="B91" s="1" t="n"/>
       <c r="C91" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n"/>
       <c r="B92" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>1</v>
@@ -1474,11 +1450,9 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
-      <c r="B97" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="B97" s="1" t="n"/>
       <c r="C97" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -1488,7 +1462,7 @@
       <c r="A98" s="1" t="n"/>
       <c r="B98" s="1" t="n"/>
       <c r="C98" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -1498,7 +1472,7 @@
       <c r="A99" s="1" t="n"/>
       <c r="B99" s="1" t="n"/>
       <c r="C99" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -1508,7 +1482,7 @@
       <c r="A100" s="1" t="n"/>
       <c r="B100" s="1" t="n"/>
       <c r="C100" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -1518,7 +1492,7 @@
       <c r="A101" s="1" t="n"/>
       <c r="B101" s="1" t="n"/>
       <c r="C101" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -1526,7 +1500,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>1</v>
@@ -1545,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1555,7 +1529,7 @@
         <v>3</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1565,7 +1539,7 @@
         <v>4</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1575,16 +1549,14 @@
         <v>5</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n"/>
-      <c r="B107" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="B107" s="1" t="n"/>
       <c r="C107" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -1594,7 +1566,7 @@
       <c r="A108" s="1" t="n"/>
       <c r="B108" s="1" t="n"/>
       <c r="C108" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -1604,7 +1576,7 @@
       <c r="A109" s="1" t="n"/>
       <c r="B109" s="1" t="n"/>
       <c r="C109" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -1614,7 +1586,7 @@
       <c r="A110" s="1" t="n"/>
       <c r="B110" s="1" t="n"/>
       <c r="C110" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -1624,7 +1596,7 @@
       <c r="A111" s="1" t="n"/>
       <c r="B111" s="1" t="n"/>
       <c r="C111" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -1633,7 +1605,7 @@
     <row r="112">
       <c r="A112" s="1" t="n"/>
       <c r="B112" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>1</v>
@@ -1684,11 +1656,9 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n"/>
-      <c r="B117" s="1" t="n">
-        <v>4</v>
-      </c>
+      <c r="B117" s="1" t="n"/>
       <c r="C117" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -1698,7 +1668,7 @@
       <c r="A118" s="1" t="n"/>
       <c r="B118" s="1" t="n"/>
       <c r="C118" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -1708,7 +1678,7 @@
       <c r="A119" s="1" t="n"/>
       <c r="B119" s="1" t="n"/>
       <c r="C119" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -1718,7 +1688,7 @@
       <c r="A120" s="1" t="n"/>
       <c r="B120" s="1" t="n"/>
       <c r="C120" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -1728,7 +1698,7 @@
       <c r="A121" s="1" t="n"/>
       <c r="B121" s="1" t="n"/>
       <c r="C121" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -1737,7 +1707,7 @@
     <row r="122">
       <c r="A122" s="1" t="n"/>
       <c r="B122" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>1</v>
@@ -1787,14 +1757,10 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B127" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="n"/>
       <c r="C127" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -1804,7 +1770,7 @@
       <c r="A128" s="1" t="n"/>
       <c r="B128" s="1" t="n"/>
       <c r="C128" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -1814,7 +1780,7 @@
       <c r="A129" s="1" t="n"/>
       <c r="B129" s="1" t="n"/>
       <c r="C129" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -1824,7 +1790,7 @@
       <c r="A130" s="1" t="n"/>
       <c r="B130" s="1" t="n"/>
       <c r="C130" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -1834,16 +1800,16 @@
       <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="n"/>
       <c r="C131" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n"/>
       <c r="B132" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>1</v>
@@ -1889,16 +1855,14 @@
         <v>5</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n"/>
-      <c r="B137" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="B137" s="1" t="n"/>
       <c r="C137" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -1908,7 +1872,7 @@
       <c r="A138" s="1" t="n"/>
       <c r="B138" s="1" t="n"/>
       <c r="C138" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -1918,7 +1882,7 @@
       <c r="A139" s="1" t="n"/>
       <c r="B139" s="1" t="n"/>
       <c r="C139" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -1928,7 +1892,7 @@
       <c r="A140" s="1" t="n"/>
       <c r="B140" s="1" t="n"/>
       <c r="C140" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -1938,16 +1902,16 @@
       <c r="A141" s="1" t="n"/>
       <c r="B141" s="1" t="n"/>
       <c r="C141" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n"/>
       <c r="B142" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>1</v>
@@ -1993,16 +1957,14 @@
         <v>5</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n"/>
-      <c r="B147" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="B147" s="1" t="n"/>
       <c r="C147" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -2012,7 +1974,7 @@
       <c r="A148" s="1" t="n"/>
       <c r="B148" s="1" t="n"/>
       <c r="C148" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -2022,7 +1984,7 @@
       <c r="A149" s="1" t="n"/>
       <c r="B149" s="1" t="n"/>
       <c r="C149" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -2032,7 +1994,7 @@
       <c r="A150" s="1" t="n"/>
       <c r="B150" s="1" t="n"/>
       <c r="C150" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -2042,18 +2004,16 @@
       <c r="A151" s="1" t="n"/>
       <c r="B151" s="1" t="n"/>
       <c r="C151" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>7</v>
-      </c>
+      <c r="A152" s="1" t="n"/>
       <c r="B152" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>1</v>
@@ -2104,11 +2064,9 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n"/>
-      <c r="B157" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="B157" s="1" t="n"/>
       <c r="C157" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -2118,7 +2076,7 @@
       <c r="A158" s="1" t="n"/>
       <c r="B158" s="1" t="n"/>
       <c r="C158" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -2128,7 +2086,7 @@
       <c r="A159" s="1" t="n"/>
       <c r="B159" s="1" t="n"/>
       <c r="C159" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -2138,7 +2096,7 @@
       <c r="A160" s="1" t="n"/>
       <c r="B160" s="1" t="n"/>
       <c r="C160" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -2148,7 +2106,7 @@
       <c r="A161" s="1" t="n"/>
       <c r="B161" s="1" t="n"/>
       <c r="C161" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -2157,7 +2115,7 @@
     <row r="162">
       <c r="A162" s="1" t="n"/>
       <c r="B162" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C162" s="1" t="n">
         <v>1</v>
@@ -2208,11 +2166,9 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n"/>
-      <c r="B167" s="1" t="n">
-        <v>4</v>
-      </c>
+      <c r="B167" s="1" t="n"/>
       <c r="C167" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -2222,7 +2178,7 @@
       <c r="A168" s="1" t="n"/>
       <c r="B168" s="1" t="n"/>
       <c r="C168" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -2232,7 +2188,7 @@
       <c r="A169" s="1" t="n"/>
       <c r="B169" s="1" t="n"/>
       <c r="C169" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -2242,7 +2198,7 @@
       <c r="A170" s="1" t="n"/>
       <c r="B170" s="1" t="n"/>
       <c r="C170" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -2252,7 +2208,7 @@
       <c r="A171" s="1" t="n"/>
       <c r="B171" s="1" t="n"/>
       <c r="C171" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -2261,13 +2217,13 @@
     <row r="172">
       <c r="A172" s="1" t="n"/>
       <c r="B172" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C172" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -2277,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -2287,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -2297,7 +2253,7 @@
         <v>4</v>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -2311,14 +2267,10 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B177" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A177" s="1" t="n"/>
+      <c r="B177" s="1" t="n"/>
       <c r="C177" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -2328,7 +2280,7 @@
       <c r="A178" s="1" t="n"/>
       <c r="B178" s="1" t="n"/>
       <c r="C178" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -2338,7 +2290,7 @@
       <c r="A179" s="1" t="n"/>
       <c r="B179" s="1" t="n"/>
       <c r="C179" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -2348,7 +2300,7 @@
       <c r="A180" s="1" t="n"/>
       <c r="B180" s="1" t="n"/>
       <c r="C180" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -2358,7 +2310,7 @@
       <c r="A181" s="1" t="n"/>
       <c r="B181" s="1" t="n"/>
       <c r="C181" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -2367,7 +2319,7 @@
     <row r="182">
       <c r="A182" s="1" t="n"/>
       <c r="B182" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C182" s="1" t="n">
         <v>1</v>
@@ -2418,11 +2370,9 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n"/>
-      <c r="B187" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="B187" s="1" t="n"/>
       <c r="C187" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -2432,7 +2382,7 @@
       <c r="A188" s="1" t="n"/>
       <c r="B188" s="1" t="n"/>
       <c r="C188" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -2442,7 +2392,7 @@
       <c r="A189" s="1" t="n"/>
       <c r="B189" s="1" t="n"/>
       <c r="C189" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -2452,7 +2402,7 @@
       <c r="A190" s="1" t="n"/>
       <c r="B190" s="1" t="n"/>
       <c r="C190" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -2462,7 +2412,7 @@
       <c r="A191" s="1" t="n"/>
       <c r="B191" s="1" t="n"/>
       <c r="C191" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -2471,13 +2421,13 @@
     <row r="192">
       <c r="A192" s="1" t="n"/>
       <c r="B192" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C192" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2437,7 @@
         <v>2</v>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -2497,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -2522,41 +2472,39 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n"/>
-      <c r="B197" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="B197" s="1" t="n"/>
       <c r="C197" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n"/>
       <c r="B198" s="1" t="n"/>
       <c r="C198" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n"/>
       <c r="B199" s="1" t="n"/>
       <c r="C199" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n"/>
       <c r="B200" s="1" t="n"/>
       <c r="C200" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -2566,7 +2514,7 @@
       <c r="A201" s="1" t="n"/>
       <c r="B201" s="1" t="n"/>
       <c r="C201" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -2574,7 +2522,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>1</v>
@@ -2603,7 +2551,7 @@
         <v>3</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2613,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2623,16 +2571,14 @@
         <v>5</v>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n"/>
-      <c r="B207" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="B207" s="1" t="n"/>
       <c r="C207" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -2642,7 +2588,7 @@
       <c r="A208" s="1" t="n"/>
       <c r="B208" s="1" t="n"/>
       <c r="C208" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -2652,7 +2598,7 @@
       <c r="A209" s="1" t="n"/>
       <c r="B209" s="1" t="n"/>
       <c r="C209" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -2662,7 +2608,7 @@
       <c r="A210" s="1" t="n"/>
       <c r="B210" s="1" t="n"/>
       <c r="C210" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D210" t="n">
         <v>0</v>
@@ -2672,7 +2618,7 @@
       <c r="A211" s="1" t="n"/>
       <c r="B211" s="1" t="n"/>
       <c r="C211" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -2681,13 +2627,13 @@
     <row r="212">
       <c r="A212" s="1" t="n"/>
       <c r="B212" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C212" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -2697,7 +2643,7 @@
         <v>2</v>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -2707,7 +2653,7 @@
         <v>3</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2717,7 +2663,7 @@
         <v>4</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2727,36 +2673,34 @@
         <v>5</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n"/>
-      <c r="B217" s="1" t="n">
-        <v>4</v>
-      </c>
+      <c r="B217" s="1" t="n"/>
       <c r="C217" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n"/>
       <c r="B218" s="1" t="n"/>
       <c r="C218" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n"/>
       <c r="B219" s="1" t="n"/>
       <c r="C219" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -2766,7 +2710,7 @@
       <c r="A220" s="1" t="n"/>
       <c r="B220" s="1" t="n"/>
       <c r="C220" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -2776,7 +2720,7 @@
       <c r="A221" s="1" t="n"/>
       <c r="B221" s="1" t="n"/>
       <c r="C221" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -2785,13 +2729,13 @@
     <row r="222">
       <c r="A222" s="1" t="n"/>
       <c r="B222" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C222" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -2801,7 +2745,7 @@
         <v>2</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -2835,14 +2779,10 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B227" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A227" s="1" t="n"/>
+      <c r="B227" s="1" t="n"/>
       <c r="C227" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -2852,7 +2792,7 @@
       <c r="A228" s="1" t="n"/>
       <c r="B228" s="1" t="n"/>
       <c r="C228" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -2862,7 +2802,7 @@
       <c r="A229" s="1" t="n"/>
       <c r="B229" s="1" t="n"/>
       <c r="C229" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -2872,7 +2812,7 @@
       <c r="A230" s="1" t="n"/>
       <c r="B230" s="1" t="n"/>
       <c r="C230" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -2882,7 +2822,7 @@
       <c r="A231" s="1" t="n"/>
       <c r="B231" s="1" t="n"/>
       <c r="C231" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D231" t="n">
         <v>0</v>
@@ -2891,7 +2831,7 @@
     <row r="232">
       <c r="A232" s="1" t="n"/>
       <c r="B232" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C232" s="1" t="n">
         <v>1</v>
@@ -2942,11 +2882,9 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n"/>
-      <c r="B237" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="B237" s="1" t="n"/>
       <c r="C237" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
@@ -2956,7 +2894,7 @@
       <c r="A238" s="1" t="n"/>
       <c r="B238" s="1" t="n"/>
       <c r="C238" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
@@ -2966,7 +2904,7 @@
       <c r="A239" s="1" t="n"/>
       <c r="B239" s="1" t="n"/>
       <c r="C239" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D239" t="n">
         <v>0</v>
@@ -2976,7 +2914,7 @@
       <c r="A240" s="1" t="n"/>
       <c r="B240" s="1" t="n"/>
       <c r="C240" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
@@ -2986,7 +2924,7 @@
       <c r="A241" s="1" t="n"/>
       <c r="B241" s="1" t="n"/>
       <c r="C241" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D241" t="n">
         <v>0</v>
@@ -2995,7 +2933,7 @@
     <row r="242">
       <c r="A242" s="1" t="n"/>
       <c r="B242" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C242" s="1" t="n">
         <v>1</v>
@@ -3046,11 +2984,9 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n"/>
-      <c r="B247" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="B247" s="1" t="n"/>
       <c r="C247" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D247" t="n">
         <v>0</v>
@@ -3060,7 +2996,7 @@
       <c r="A248" s="1" t="n"/>
       <c r="B248" s="1" t="n"/>
       <c r="C248" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
@@ -3070,7 +3006,7 @@
       <c r="A249" s="1" t="n"/>
       <c r="B249" s="1" t="n"/>
       <c r="C249" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D249" t="n">
         <v>0</v>
@@ -3080,7 +3016,7 @@
       <c r="A250" s="1" t="n"/>
       <c r="B250" s="1" t="n"/>
       <c r="C250" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>
@@ -3090,74 +3026,7788 @@
       <c r="A251" s="1" t="n"/>
       <c r="B251" s="1" t="n"/>
       <c r="C251" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
       </c>
     </row>
+    <row r="252">
+      <c r="A252" s="1" t="n"/>
+      <c r="B252" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C252" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n"/>
+      <c r="B253" s="1" t="n"/>
+      <c r="C253" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n"/>
+      <c r="B254" s="1" t="n"/>
+      <c r="C254" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n"/>
+      <c r="B255" s="1" t="n"/>
+      <c r="C255" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n"/>
+      <c r="B256" s="1" t="n"/>
+      <c r="C256" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n"/>
+      <c r="B257" s="1" t="n"/>
+      <c r="C257" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n"/>
+      <c r="B258" s="1" t="n"/>
+      <c r="C258" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n"/>
+      <c r="B259" s="1" t="n"/>
+      <c r="C259" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n"/>
+      <c r="B260" s="1" t="n"/>
+      <c r="C260" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n"/>
+      <c r="B261" s="1" t="n"/>
+      <c r="C261" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n"/>
+      <c r="B262" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C262" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n"/>
+      <c r="B263" s="1" t="n"/>
+      <c r="C263" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n"/>
+      <c r="B264" s="1" t="n"/>
+      <c r="C264" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n"/>
+      <c r="B265" s="1" t="n"/>
+      <c r="C265" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n"/>
+      <c r="B266" s="1" t="n"/>
+      <c r="C266" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n"/>
+      <c r="B267" s="1" t="n"/>
+      <c r="C267" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n"/>
+      <c r="B268" s="1" t="n"/>
+      <c r="C268" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n"/>
+      <c r="B269" s="1" t="n"/>
+      <c r="C269" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n"/>
+      <c r="B270" s="1" t="n"/>
+      <c r="C270" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n"/>
+      <c r="B271" s="1" t="n"/>
+      <c r="C271" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n"/>
+      <c r="B272" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C272" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n"/>
+      <c r="B273" s="1" t="n"/>
+      <c r="C273" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n"/>
+      <c r="B274" s="1" t="n"/>
+      <c r="C274" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n"/>
+      <c r="B275" s="1" t="n"/>
+      <c r="C275" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n"/>
+      <c r="B276" s="1" t="n"/>
+      <c r="C276" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n"/>
+      <c r="B277" s="1" t="n"/>
+      <c r="C277" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n"/>
+      <c r="B278" s="1" t="n"/>
+      <c r="C278" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n"/>
+      <c r="B279" s="1" t="n"/>
+      <c r="C279" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n"/>
+      <c r="B280" s="1" t="n"/>
+      <c r="C280" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n"/>
+      <c r="B281" s="1" t="n"/>
+      <c r="C281" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n"/>
+      <c r="B282" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C282" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n"/>
+      <c r="B283" s="1" t="n"/>
+      <c r="C283" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n"/>
+      <c r="B284" s="1" t="n"/>
+      <c r="C284" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n"/>
+      <c r="B285" s="1" t="n"/>
+      <c r="C285" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n"/>
+      <c r="B286" s="1" t="n"/>
+      <c r="C286" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n"/>
+      <c r="B287" s="1" t="n"/>
+      <c r="C287" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n"/>
+      <c r="B288" s="1" t="n"/>
+      <c r="C288" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n"/>
+      <c r="B289" s="1" t="n"/>
+      <c r="C289" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n"/>
+      <c r="B290" s="1" t="n"/>
+      <c r="C290" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n"/>
+      <c r="B291" s="1" t="n"/>
+      <c r="C291" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n"/>
+      <c r="B292" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C292" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n"/>
+      <c r="B293" s="1" t="n"/>
+      <c r="C293" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n"/>
+      <c r="B294" s="1" t="n"/>
+      <c r="C294" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n"/>
+      <c r="B295" s="1" t="n"/>
+      <c r="C295" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n"/>
+      <c r="B296" s="1" t="n"/>
+      <c r="C296" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n"/>
+      <c r="B297" s="1" t="n"/>
+      <c r="C297" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n"/>
+      <c r="B298" s="1" t="n"/>
+      <c r="C298" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n"/>
+      <c r="B299" s="1" t="n"/>
+      <c r="C299" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n"/>
+      <c r="B300" s="1" t="n"/>
+      <c r="C300" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n"/>
+      <c r="B301" s="1" t="n"/>
+      <c r="C301" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B302" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C302" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n"/>
+      <c r="B303" s="1" t="n"/>
+      <c r="C303" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n"/>
+      <c r="B304" s="1" t="n"/>
+      <c r="C304" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n"/>
+      <c r="B305" s="1" t="n"/>
+      <c r="C305" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n"/>
+      <c r="B306" s="1" t="n"/>
+      <c r="C306" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n"/>
+      <c r="B307" s="1" t="n"/>
+      <c r="C307" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n"/>
+      <c r="B308" s="1" t="n"/>
+      <c r="C308" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n"/>
+      <c r="B309" s="1" t="n"/>
+      <c r="C309" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n"/>
+      <c r="B310" s="1" t="n"/>
+      <c r="C310" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n"/>
+      <c r="B311" s="1" t="n"/>
+      <c r="C311" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n"/>
+      <c r="B312" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C312" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n"/>
+      <c r="B313" s="1" t="n"/>
+      <c r="C313" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n"/>
+      <c r="B314" s="1" t="n"/>
+      <c r="C314" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n"/>
+      <c r="B315" s="1" t="n"/>
+      <c r="C315" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n"/>
+      <c r="B316" s="1" t="n"/>
+      <c r="C316" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n"/>
+      <c r="B317" s="1" t="n"/>
+      <c r="C317" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n"/>
+      <c r="B318" s="1" t="n"/>
+      <c r="C318" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n"/>
+      <c r="B319" s="1" t="n"/>
+      <c r="C319" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n"/>
+      <c r="B320" s="1" t="n"/>
+      <c r="C320" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n"/>
+      <c r="B321" s="1" t="n"/>
+      <c r="C321" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n"/>
+      <c r="B322" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C322" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n"/>
+      <c r="B323" s="1" t="n"/>
+      <c r="C323" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n"/>
+      <c r="B324" s="1" t="n"/>
+      <c r="C324" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n"/>
+      <c r="B325" s="1" t="n"/>
+      <c r="C325" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n"/>
+      <c r="B326" s="1" t="n"/>
+      <c r="C326" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n"/>
+      <c r="B327" s="1" t="n"/>
+      <c r="C327" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n"/>
+      <c r="B328" s="1" t="n"/>
+      <c r="C328" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n"/>
+      <c r="B329" s="1" t="n"/>
+      <c r="C329" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n"/>
+      <c r="B330" s="1" t="n"/>
+      <c r="C330" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n"/>
+      <c r="B331" s="1" t="n"/>
+      <c r="C331" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n"/>
+      <c r="B332" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C332" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n"/>
+      <c r="B333" s="1" t="n"/>
+      <c r="C333" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n"/>
+      <c r="B334" s="1" t="n"/>
+      <c r="C334" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n"/>
+      <c r="B335" s="1" t="n"/>
+      <c r="C335" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n"/>
+      <c r="B336" s="1" t="n"/>
+      <c r="C336" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n"/>
+      <c r="B337" s="1" t="n"/>
+      <c r="C337" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n"/>
+      <c r="B338" s="1" t="n"/>
+      <c r="C338" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n"/>
+      <c r="B339" s="1" t="n"/>
+      <c r="C339" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n"/>
+      <c r="B340" s="1" t="n"/>
+      <c r="C340" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n"/>
+      <c r="B341" s="1" t="n"/>
+      <c r="C341" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n"/>
+      <c r="B342" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C342" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n"/>
+      <c r="B343" s="1" t="n"/>
+      <c r="C343" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n"/>
+      <c r="B344" s="1" t="n"/>
+      <c r="C344" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n"/>
+      <c r="B345" s="1" t="n"/>
+      <c r="C345" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n"/>
+      <c r="B346" s="1" t="n"/>
+      <c r="C346" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n"/>
+      <c r="B347" s="1" t="n"/>
+      <c r="C347" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n"/>
+      <c r="B348" s="1" t="n"/>
+      <c r="C348" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n"/>
+      <c r="B349" s="1" t="n"/>
+      <c r="C349" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n"/>
+      <c r="B350" s="1" t="n"/>
+      <c r="C350" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n"/>
+      <c r="B351" s="1" t="n"/>
+      <c r="C351" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n"/>
+      <c r="B352" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C352" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n"/>
+      <c r="B353" s="1" t="n"/>
+      <c r="C353" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n"/>
+      <c r="B354" s="1" t="n"/>
+      <c r="C354" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n"/>
+      <c r="B355" s="1" t="n"/>
+      <c r="C355" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n"/>
+      <c r="B356" s="1" t="n"/>
+      <c r="C356" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n"/>
+      <c r="B357" s="1" t="n"/>
+      <c r="C357" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n"/>
+      <c r="B358" s="1" t="n"/>
+      <c r="C358" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n"/>
+      <c r="B359" s="1" t="n"/>
+      <c r="C359" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n"/>
+      <c r="B360" s="1" t="n"/>
+      <c r="C360" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n"/>
+      <c r="B361" s="1" t="n"/>
+      <c r="C361" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n"/>
+      <c r="B362" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C362" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n"/>
+      <c r="B363" s="1" t="n"/>
+      <c r="C363" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n"/>
+      <c r="B364" s="1" t="n"/>
+      <c r="C364" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n"/>
+      <c r="B365" s="1" t="n"/>
+      <c r="C365" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n"/>
+      <c r="B366" s="1" t="n"/>
+      <c r="C366" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n"/>
+      <c r="B367" s="1" t="n"/>
+      <c r="C367" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n"/>
+      <c r="B368" s="1" t="n"/>
+      <c r="C368" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n"/>
+      <c r="B369" s="1" t="n"/>
+      <c r="C369" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n"/>
+      <c r="B370" s="1" t="n"/>
+      <c r="C370" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n"/>
+      <c r="B371" s="1" t="n"/>
+      <c r="C371" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n"/>
+      <c r="B372" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C372" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n"/>
+      <c r="B373" s="1" t="n"/>
+      <c r="C373" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n"/>
+      <c r="B374" s="1" t="n"/>
+      <c r="C374" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n"/>
+      <c r="B375" s="1" t="n"/>
+      <c r="C375" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n"/>
+      <c r="B376" s="1" t="n"/>
+      <c r="C376" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n"/>
+      <c r="B377" s="1" t="n"/>
+      <c r="C377" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n"/>
+      <c r="B378" s="1" t="n"/>
+      <c r="C378" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n"/>
+      <c r="B379" s="1" t="n"/>
+      <c r="C379" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n"/>
+      <c r="B380" s="1" t="n"/>
+      <c r="C380" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n"/>
+      <c r="B381" s="1" t="n"/>
+      <c r="C381" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n"/>
+      <c r="B382" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C382" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n"/>
+      <c r="B383" s="1" t="n"/>
+      <c r="C383" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n"/>
+      <c r="B384" s="1" t="n"/>
+      <c r="C384" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n"/>
+      <c r="B385" s="1" t="n"/>
+      <c r="C385" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n"/>
+      <c r="B386" s="1" t="n"/>
+      <c r="C386" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n"/>
+      <c r="B387" s="1" t="n"/>
+      <c r="C387" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n"/>
+      <c r="B388" s="1" t="n"/>
+      <c r="C388" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n"/>
+      <c r="B389" s="1" t="n"/>
+      <c r="C389" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n"/>
+      <c r="B390" s="1" t="n"/>
+      <c r="C390" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n"/>
+      <c r="B391" s="1" t="n"/>
+      <c r="C391" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n"/>
+      <c r="B392" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C392" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n"/>
+      <c r="B393" s="1" t="n"/>
+      <c r="C393" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n"/>
+      <c r="B394" s="1" t="n"/>
+      <c r="C394" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n"/>
+      <c r="B395" s="1" t="n"/>
+      <c r="C395" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n"/>
+      <c r="B396" s="1" t="n"/>
+      <c r="C396" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n"/>
+      <c r="B397" s="1" t="n"/>
+      <c r="C397" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n"/>
+      <c r="B398" s="1" t="n"/>
+      <c r="C398" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n"/>
+      <c r="B399" s="1" t="n"/>
+      <c r="C399" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n"/>
+      <c r="B400" s="1" t="n"/>
+      <c r="C400" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n"/>
+      <c r="B401" s="1" t="n"/>
+      <c r="C401" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B402" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C402" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n"/>
+      <c r="B403" s="1" t="n"/>
+      <c r="C403" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n"/>
+      <c r="B404" s="1" t="n"/>
+      <c r="C404" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n"/>
+      <c r="B405" s="1" t="n"/>
+      <c r="C405" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n"/>
+      <c r="B406" s="1" t="n"/>
+      <c r="C406" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n"/>
+      <c r="B407" s="1" t="n"/>
+      <c r="C407" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n"/>
+      <c r="B408" s="1" t="n"/>
+      <c r="C408" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n"/>
+      <c r="B409" s="1" t="n"/>
+      <c r="C409" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n"/>
+      <c r="B410" s="1" t="n"/>
+      <c r="C410" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n"/>
+      <c r="B411" s="1" t="n"/>
+      <c r="C411" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n"/>
+      <c r="B412" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C412" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n"/>
+      <c r="B413" s="1" t="n"/>
+      <c r="C413" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n"/>
+      <c r="B414" s="1" t="n"/>
+      <c r="C414" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n"/>
+      <c r="B415" s="1" t="n"/>
+      <c r="C415" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n"/>
+      <c r="B416" s="1" t="n"/>
+      <c r="C416" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n"/>
+      <c r="B417" s="1" t="n"/>
+      <c r="C417" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n"/>
+      <c r="B418" s="1" t="n"/>
+      <c r="C418" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n"/>
+      <c r="B419" s="1" t="n"/>
+      <c r="C419" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n"/>
+      <c r="B420" s="1" t="n"/>
+      <c r="C420" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n"/>
+      <c r="B421" s="1" t="n"/>
+      <c r="C421" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n"/>
+      <c r="B422" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C422" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n"/>
+      <c r="B423" s="1" t="n"/>
+      <c r="C423" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n"/>
+      <c r="B424" s="1" t="n"/>
+      <c r="C424" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n"/>
+      <c r="B425" s="1" t="n"/>
+      <c r="C425" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n"/>
+      <c r="B426" s="1" t="n"/>
+      <c r="C426" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n"/>
+      <c r="B427" s="1" t="n"/>
+      <c r="C427" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n"/>
+      <c r="B428" s="1" t="n"/>
+      <c r="C428" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n"/>
+      <c r="B429" s="1" t="n"/>
+      <c r="C429" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n"/>
+      <c r="B430" s="1" t="n"/>
+      <c r="C430" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n"/>
+      <c r="B431" s="1" t="n"/>
+      <c r="C431" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n"/>
+      <c r="B432" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C432" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n"/>
+      <c r="B433" s="1" t="n"/>
+      <c r="C433" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n"/>
+      <c r="B434" s="1" t="n"/>
+      <c r="C434" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n"/>
+      <c r="B435" s="1" t="n"/>
+      <c r="C435" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n"/>
+      <c r="B436" s="1" t="n"/>
+      <c r="C436" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n"/>
+      <c r="B437" s="1" t="n"/>
+      <c r="C437" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n"/>
+      <c r="B438" s="1" t="n"/>
+      <c r="C438" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n"/>
+      <c r="B439" s="1" t="n"/>
+      <c r="C439" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n"/>
+      <c r="B440" s="1" t="n"/>
+      <c r="C440" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n"/>
+      <c r="B441" s="1" t="n"/>
+      <c r="C441" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n"/>
+      <c r="B442" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C442" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n"/>
+      <c r="B443" s="1" t="n"/>
+      <c r="C443" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n"/>
+      <c r="B444" s="1" t="n"/>
+      <c r="C444" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n"/>
+      <c r="B445" s="1" t="n"/>
+      <c r="C445" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n"/>
+      <c r="B446" s="1" t="n"/>
+      <c r="C446" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n"/>
+      <c r="B447" s="1" t="n"/>
+      <c r="C447" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n"/>
+      <c r="B448" s="1" t="n"/>
+      <c r="C448" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n"/>
+      <c r="B449" s="1" t="n"/>
+      <c r="C449" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n"/>
+      <c r="B450" s="1" t="n"/>
+      <c r="C450" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n"/>
+      <c r="B451" s="1" t="n"/>
+      <c r="C451" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n"/>
+      <c r="B452" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C452" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n"/>
+      <c r="B453" s="1" t="n"/>
+      <c r="C453" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n"/>
+      <c r="B454" s="1" t="n"/>
+      <c r="C454" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n"/>
+      <c r="B455" s="1" t="n"/>
+      <c r="C455" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n"/>
+      <c r="B456" s="1" t="n"/>
+      <c r="C456" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n"/>
+      <c r="B457" s="1" t="n"/>
+      <c r="C457" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n"/>
+      <c r="B458" s="1" t="n"/>
+      <c r="C458" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n"/>
+      <c r="B459" s="1" t="n"/>
+      <c r="C459" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n"/>
+      <c r="B460" s="1" t="n"/>
+      <c r="C460" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n"/>
+      <c r="B461" s="1" t="n"/>
+      <c r="C461" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n"/>
+      <c r="B462" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C462" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n"/>
+      <c r="B463" s="1" t="n"/>
+      <c r="C463" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n"/>
+      <c r="B464" s="1" t="n"/>
+      <c r="C464" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n"/>
+      <c r="B465" s="1" t="n"/>
+      <c r="C465" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n"/>
+      <c r="B466" s="1" t="n"/>
+      <c r="C466" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n"/>
+      <c r="B467" s="1" t="n"/>
+      <c r="C467" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n"/>
+      <c r="B468" s="1" t="n"/>
+      <c r="C468" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n"/>
+      <c r="B469" s="1" t="n"/>
+      <c r="C469" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n"/>
+      <c r="B470" s="1" t="n"/>
+      <c r="C470" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n"/>
+      <c r="B471" s="1" t="n"/>
+      <c r="C471" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n"/>
+      <c r="B472" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C472" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n"/>
+      <c r="B473" s="1" t="n"/>
+      <c r="C473" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n"/>
+      <c r="B474" s="1" t="n"/>
+      <c r="C474" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n"/>
+      <c r="B475" s="1" t="n"/>
+      <c r="C475" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n"/>
+      <c r="B476" s="1" t="n"/>
+      <c r="C476" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n"/>
+      <c r="B477" s="1" t="n"/>
+      <c r="C477" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n"/>
+      <c r="B478" s="1" t="n"/>
+      <c r="C478" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n"/>
+      <c r="B479" s="1" t="n"/>
+      <c r="C479" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n"/>
+      <c r="B480" s="1" t="n"/>
+      <c r="C480" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n"/>
+      <c r="B481" s="1" t="n"/>
+      <c r="C481" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n"/>
+      <c r="B482" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C482" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D482" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n"/>
+      <c r="B483" s="1" t="n"/>
+      <c r="C483" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n"/>
+      <c r="B484" s="1" t="n"/>
+      <c r="C484" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n"/>
+      <c r="B485" s="1" t="n"/>
+      <c r="C485" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n"/>
+      <c r="B486" s="1" t="n"/>
+      <c r="C486" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D486" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n"/>
+      <c r="B487" s="1" t="n"/>
+      <c r="C487" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n"/>
+      <c r="B488" s="1" t="n"/>
+      <c r="C488" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n"/>
+      <c r="B489" s="1" t="n"/>
+      <c r="C489" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D489" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n"/>
+      <c r="B490" s="1" t="n"/>
+      <c r="C490" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n"/>
+      <c r="B491" s="1" t="n"/>
+      <c r="C491" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n"/>
+      <c r="B492" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C492" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D492" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n"/>
+      <c r="B493" s="1" t="n"/>
+      <c r="C493" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n"/>
+      <c r="B494" s="1" t="n"/>
+      <c r="C494" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n"/>
+      <c r="B495" s="1" t="n"/>
+      <c r="C495" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n"/>
+      <c r="B496" s="1" t="n"/>
+      <c r="C496" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n"/>
+      <c r="B497" s="1" t="n"/>
+      <c r="C497" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n"/>
+      <c r="B498" s="1" t="n"/>
+      <c r="C498" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n"/>
+      <c r="B499" s="1" t="n"/>
+      <c r="C499" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n"/>
+      <c r="B500" s="1" t="n"/>
+      <c r="C500" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n"/>
+      <c r="B501" s="1" t="n"/>
+      <c r="C501" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B502" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C502" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n"/>
+      <c r="B503" s="1" t="n"/>
+      <c r="C503" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n"/>
+      <c r="B504" s="1" t="n"/>
+      <c r="C504" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n"/>
+      <c r="B505" s="1" t="n"/>
+      <c r="C505" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D505" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n"/>
+      <c r="B506" s="1" t="n"/>
+      <c r="C506" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n"/>
+      <c r="B507" s="1" t="n"/>
+      <c r="C507" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n"/>
+      <c r="B508" s="1" t="n"/>
+      <c r="C508" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n"/>
+      <c r="B509" s="1" t="n"/>
+      <c r="C509" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n"/>
+      <c r="B510" s="1" t="n"/>
+      <c r="C510" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n"/>
+      <c r="B511" s="1" t="n"/>
+      <c r="C511" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n"/>
+      <c r="B512" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C512" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n"/>
+      <c r="B513" s="1" t="n"/>
+      <c r="C513" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n"/>
+      <c r="B514" s="1" t="n"/>
+      <c r="C514" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n"/>
+      <c r="B515" s="1" t="n"/>
+      <c r="C515" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n"/>
+      <c r="B516" s="1" t="n"/>
+      <c r="C516" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n"/>
+      <c r="B517" s="1" t="n"/>
+      <c r="C517" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n"/>
+      <c r="B518" s="1" t="n"/>
+      <c r="C518" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n"/>
+      <c r="B519" s="1" t="n"/>
+      <c r="C519" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n"/>
+      <c r="B520" s="1" t="n"/>
+      <c r="C520" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n"/>
+      <c r="B521" s="1" t="n"/>
+      <c r="C521" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n"/>
+      <c r="B522" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C522" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n"/>
+      <c r="B523" s="1" t="n"/>
+      <c r="C523" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n"/>
+      <c r="B524" s="1" t="n"/>
+      <c r="C524" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n"/>
+      <c r="B525" s="1" t="n"/>
+      <c r="C525" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n"/>
+      <c r="B526" s="1" t="n"/>
+      <c r="C526" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n"/>
+      <c r="B527" s="1" t="n"/>
+      <c r="C527" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n"/>
+      <c r="B528" s="1" t="n"/>
+      <c r="C528" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n"/>
+      <c r="B529" s="1" t="n"/>
+      <c r="C529" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n"/>
+      <c r="B530" s="1" t="n"/>
+      <c r="C530" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n"/>
+      <c r="B531" s="1" t="n"/>
+      <c r="C531" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n"/>
+      <c r="B532" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C532" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n"/>
+      <c r="B533" s="1" t="n"/>
+      <c r="C533" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n"/>
+      <c r="B534" s="1" t="n"/>
+      <c r="C534" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n"/>
+      <c r="B535" s="1" t="n"/>
+      <c r="C535" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n"/>
+      <c r="B536" s="1" t="n"/>
+      <c r="C536" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n"/>
+      <c r="B537" s="1" t="n"/>
+      <c r="C537" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n"/>
+      <c r="B538" s="1" t="n"/>
+      <c r="C538" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n"/>
+      <c r="B539" s="1" t="n"/>
+      <c r="C539" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n"/>
+      <c r="B540" s="1" t="n"/>
+      <c r="C540" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n"/>
+      <c r="B541" s="1" t="n"/>
+      <c r="C541" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n"/>
+      <c r="B542" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C542" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n"/>
+      <c r="B543" s="1" t="n"/>
+      <c r="C543" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n"/>
+      <c r="B544" s="1" t="n"/>
+      <c r="C544" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n"/>
+      <c r="B545" s="1" t="n"/>
+      <c r="C545" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D545" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n"/>
+      <c r="B546" s="1" t="n"/>
+      <c r="C546" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n"/>
+      <c r="B547" s="1" t="n"/>
+      <c r="C547" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D547" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n"/>
+      <c r="B548" s="1" t="n"/>
+      <c r="C548" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D548" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n"/>
+      <c r="B549" s="1" t="n"/>
+      <c r="C549" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D549" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n"/>
+      <c r="B550" s="1" t="n"/>
+      <c r="C550" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D550" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n"/>
+      <c r="B551" s="1" t="n"/>
+      <c r="C551" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n"/>
+      <c r="B552" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C552" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n"/>
+      <c r="B553" s="1" t="n"/>
+      <c r="C553" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D553" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n"/>
+      <c r="B554" s="1" t="n"/>
+      <c r="C554" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n"/>
+      <c r="B555" s="1" t="n"/>
+      <c r="C555" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n"/>
+      <c r="B556" s="1" t="n"/>
+      <c r="C556" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n"/>
+      <c r="B557" s="1" t="n"/>
+      <c r="C557" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n"/>
+      <c r="B558" s="1" t="n"/>
+      <c r="C558" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n"/>
+      <c r="B559" s="1" t="n"/>
+      <c r="C559" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n"/>
+      <c r="B560" s="1" t="n"/>
+      <c r="C560" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n"/>
+      <c r="B561" s="1" t="n"/>
+      <c r="C561" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n"/>
+      <c r="B562" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C562" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n"/>
+      <c r="B563" s="1" t="n"/>
+      <c r="C563" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n"/>
+      <c r="B564" s="1" t="n"/>
+      <c r="C564" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n"/>
+      <c r="B565" s="1" t="n"/>
+      <c r="C565" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n"/>
+      <c r="B566" s="1" t="n"/>
+      <c r="C566" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n"/>
+      <c r="B567" s="1" t="n"/>
+      <c r="C567" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n"/>
+      <c r="B568" s="1" t="n"/>
+      <c r="C568" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n"/>
+      <c r="B569" s="1" t="n"/>
+      <c r="C569" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n"/>
+      <c r="B570" s="1" t="n"/>
+      <c r="C570" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n"/>
+      <c r="B571" s="1" t="n"/>
+      <c r="C571" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D571" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n"/>
+      <c r="B572" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C572" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n"/>
+      <c r="B573" s="1" t="n"/>
+      <c r="C573" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n"/>
+      <c r="B574" s="1" t="n"/>
+      <c r="C574" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n"/>
+      <c r="B575" s="1" t="n"/>
+      <c r="C575" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n"/>
+      <c r="B576" s="1" t="n"/>
+      <c r="C576" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n"/>
+      <c r="B577" s="1" t="n"/>
+      <c r="C577" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D577" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n"/>
+      <c r="B578" s="1" t="n"/>
+      <c r="C578" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D578" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n"/>
+      <c r="B579" s="1" t="n"/>
+      <c r="C579" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D579" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n"/>
+      <c r="B580" s="1" t="n"/>
+      <c r="C580" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n"/>
+      <c r="B581" s="1" t="n"/>
+      <c r="C581" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n"/>
+      <c r="B582" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C582" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D582" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n"/>
+      <c r="B583" s="1" t="n"/>
+      <c r="C583" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n"/>
+      <c r="B584" s="1" t="n"/>
+      <c r="C584" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n"/>
+      <c r="B585" s="1" t="n"/>
+      <c r="C585" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n"/>
+      <c r="B586" s="1" t="n"/>
+      <c r="C586" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n"/>
+      <c r="B587" s="1" t="n"/>
+      <c r="C587" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n"/>
+      <c r="B588" s="1" t="n"/>
+      <c r="C588" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n"/>
+      <c r="B589" s="1" t="n"/>
+      <c r="C589" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n"/>
+      <c r="B590" s="1" t="n"/>
+      <c r="C590" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n"/>
+      <c r="B591" s="1" t="n"/>
+      <c r="C591" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n"/>
+      <c r="B592" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C592" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n"/>
+      <c r="B593" s="1" t="n"/>
+      <c r="C593" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n"/>
+      <c r="B594" s="1" t="n"/>
+      <c r="C594" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n"/>
+      <c r="B595" s="1" t="n"/>
+      <c r="C595" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n"/>
+      <c r="B596" s="1" t="n"/>
+      <c r="C596" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n"/>
+      <c r="B597" s="1" t="n"/>
+      <c r="C597" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n"/>
+      <c r="B598" s="1" t="n"/>
+      <c r="C598" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n"/>
+      <c r="B599" s="1" t="n"/>
+      <c r="C599" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n"/>
+      <c r="B600" s="1" t="n"/>
+      <c r="C600" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n"/>
+      <c r="B601" s="1" t="n"/>
+      <c r="C601" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B602" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C602" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n"/>
+      <c r="B603" s="1" t="n"/>
+      <c r="C603" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n"/>
+      <c r="B604" s="1" t="n"/>
+      <c r="C604" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n"/>
+      <c r="B605" s="1" t="n"/>
+      <c r="C605" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n"/>
+      <c r="B606" s="1" t="n"/>
+      <c r="C606" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n"/>
+      <c r="B607" s="1" t="n"/>
+      <c r="C607" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n"/>
+      <c r="B608" s="1" t="n"/>
+      <c r="C608" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n"/>
+      <c r="B609" s="1" t="n"/>
+      <c r="C609" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n"/>
+      <c r="B610" s="1" t="n"/>
+      <c r="C610" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n"/>
+      <c r="B611" s="1" t="n"/>
+      <c r="C611" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n"/>
+      <c r="B612" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C612" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D612" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n"/>
+      <c r="B613" s="1" t="n"/>
+      <c r="C613" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n"/>
+      <c r="B614" s="1" t="n"/>
+      <c r="C614" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n"/>
+      <c r="B615" s="1" t="n"/>
+      <c r="C615" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n"/>
+      <c r="B616" s="1" t="n"/>
+      <c r="C616" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n"/>
+      <c r="B617" s="1" t="n"/>
+      <c r="C617" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n"/>
+      <c r="B618" s="1" t="n"/>
+      <c r="C618" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n"/>
+      <c r="B619" s="1" t="n"/>
+      <c r="C619" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n"/>
+      <c r="B620" s="1" t="n"/>
+      <c r="C620" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n"/>
+      <c r="B621" s="1" t="n"/>
+      <c r="C621" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n"/>
+      <c r="B622" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C622" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n"/>
+      <c r="B623" s="1" t="n"/>
+      <c r="C623" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n"/>
+      <c r="B624" s="1" t="n"/>
+      <c r="C624" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n"/>
+      <c r="B625" s="1" t="n"/>
+      <c r="C625" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n"/>
+      <c r="B626" s="1" t="n"/>
+      <c r="C626" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n"/>
+      <c r="B627" s="1" t="n"/>
+      <c r="C627" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n"/>
+      <c r="B628" s="1" t="n"/>
+      <c r="C628" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n"/>
+      <c r="B629" s="1" t="n"/>
+      <c r="C629" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n"/>
+      <c r="B630" s="1" t="n"/>
+      <c r="C630" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n"/>
+      <c r="B631" s="1" t="n"/>
+      <c r="C631" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n"/>
+      <c r="B632" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C632" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n"/>
+      <c r="B633" s="1" t="n"/>
+      <c r="C633" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n"/>
+      <c r="B634" s="1" t="n"/>
+      <c r="C634" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n"/>
+      <c r="B635" s="1" t="n"/>
+      <c r="C635" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n"/>
+      <c r="B636" s="1" t="n"/>
+      <c r="C636" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n"/>
+      <c r="B637" s="1" t="n"/>
+      <c r="C637" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n"/>
+      <c r="B638" s="1" t="n"/>
+      <c r="C638" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n"/>
+      <c r="B639" s="1" t="n"/>
+      <c r="C639" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n"/>
+      <c r="B640" s="1" t="n"/>
+      <c r="C640" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n"/>
+      <c r="B641" s="1" t="n"/>
+      <c r="C641" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n"/>
+      <c r="B642" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C642" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n"/>
+      <c r="B643" s="1" t="n"/>
+      <c r="C643" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n"/>
+      <c r="B644" s="1" t="n"/>
+      <c r="C644" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n"/>
+      <c r="B645" s="1" t="n"/>
+      <c r="C645" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n"/>
+      <c r="B646" s="1" t="n"/>
+      <c r="C646" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D646" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n"/>
+      <c r="B647" s="1" t="n"/>
+      <c r="C647" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D647" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n"/>
+      <c r="B648" s="1" t="n"/>
+      <c r="C648" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D648" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n"/>
+      <c r="B649" s="1" t="n"/>
+      <c r="C649" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D649" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n"/>
+      <c r="B650" s="1" t="n"/>
+      <c r="C650" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D650" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n"/>
+      <c r="B651" s="1" t="n"/>
+      <c r="C651" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D651" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n"/>
+      <c r="B652" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C652" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n"/>
+      <c r="B653" s="1" t="n"/>
+      <c r="C653" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n"/>
+      <c r="B654" s="1" t="n"/>
+      <c r="C654" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n"/>
+      <c r="B655" s="1" t="n"/>
+      <c r="C655" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D655" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n"/>
+      <c r="B656" s="1" t="n"/>
+      <c r="C656" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n"/>
+      <c r="B657" s="1" t="n"/>
+      <c r="C657" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D657" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n"/>
+      <c r="B658" s="1" t="n"/>
+      <c r="C658" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D658" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n"/>
+      <c r="B659" s="1" t="n"/>
+      <c r="C659" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n"/>
+      <c r="B660" s="1" t="n"/>
+      <c r="C660" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D660" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n"/>
+      <c r="B661" s="1" t="n"/>
+      <c r="C661" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D661" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n"/>
+      <c r="B662" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C662" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n"/>
+      <c r="B663" s="1" t="n"/>
+      <c r="C663" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n"/>
+      <c r="B664" s="1" t="n"/>
+      <c r="C664" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D664" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n"/>
+      <c r="B665" s="1" t="n"/>
+      <c r="C665" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D665" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n"/>
+      <c r="B666" s="1" t="n"/>
+      <c r="C666" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D666" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n"/>
+      <c r="B667" s="1" t="n"/>
+      <c r="C667" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D667" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n"/>
+      <c r="B668" s="1" t="n"/>
+      <c r="C668" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D668" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n"/>
+      <c r="B669" s="1" t="n"/>
+      <c r="C669" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D669" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n"/>
+      <c r="B670" s="1" t="n"/>
+      <c r="C670" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D670" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n"/>
+      <c r="B671" s="1" t="n"/>
+      <c r="C671" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D671" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n"/>
+      <c r="B672" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C672" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D672" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n"/>
+      <c r="B673" s="1" t="n"/>
+      <c r="C673" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D673" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n"/>
+      <c r="B674" s="1" t="n"/>
+      <c r="C674" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D674" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n"/>
+      <c r="B675" s="1" t="n"/>
+      <c r="C675" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D675" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n"/>
+      <c r="B676" s="1" t="n"/>
+      <c r="C676" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D676" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n"/>
+      <c r="B677" s="1" t="n"/>
+      <c r="C677" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D677" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n"/>
+      <c r="B678" s="1" t="n"/>
+      <c r="C678" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D678" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n"/>
+      <c r="B679" s="1" t="n"/>
+      <c r="C679" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D679" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n"/>
+      <c r="B680" s="1" t="n"/>
+      <c r="C680" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n"/>
+      <c r="B681" s="1" t="n"/>
+      <c r="C681" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D681" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n"/>
+      <c r="B682" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C682" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D682" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n"/>
+      <c r="B683" s="1" t="n"/>
+      <c r="C683" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D683" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n"/>
+      <c r="B684" s="1" t="n"/>
+      <c r="C684" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D684" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n"/>
+      <c r="B685" s="1" t="n"/>
+      <c r="C685" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D685" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n"/>
+      <c r="B686" s="1" t="n"/>
+      <c r="C686" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D686" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n"/>
+      <c r="B687" s="1" t="n"/>
+      <c r="C687" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D687" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n"/>
+      <c r="B688" s="1" t="n"/>
+      <c r="C688" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D688" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n"/>
+      <c r="B689" s="1" t="n"/>
+      <c r="C689" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D689" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n"/>
+      <c r="B690" s="1" t="n"/>
+      <c r="C690" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D690" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n"/>
+      <c r="B691" s="1" t="n"/>
+      <c r="C691" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D691" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n"/>
+      <c r="B692" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C692" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D692" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n"/>
+      <c r="B693" s="1" t="n"/>
+      <c r="C693" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D693" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n"/>
+      <c r="B694" s="1" t="n"/>
+      <c r="C694" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D694" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n"/>
+      <c r="B695" s="1" t="n"/>
+      <c r="C695" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D695" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n"/>
+      <c r="B696" s="1" t="n"/>
+      <c r="C696" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D696" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n"/>
+      <c r="B697" s="1" t="n"/>
+      <c r="C697" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D697" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n"/>
+      <c r="B698" s="1" t="n"/>
+      <c r="C698" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D698" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n"/>
+      <c r="B699" s="1" t="n"/>
+      <c r="C699" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D699" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n"/>
+      <c r="B700" s="1" t="n"/>
+      <c r="C700" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n"/>
+      <c r="B701" s="1" t="n"/>
+      <c r="C701" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D701" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B702" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C702" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D702" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n"/>
+      <c r="B703" s="1" t="n"/>
+      <c r="C703" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D703" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n"/>
+      <c r="B704" s="1" t="n"/>
+      <c r="C704" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n"/>
+      <c r="B705" s="1" t="n"/>
+      <c r="C705" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n"/>
+      <c r="B706" s="1" t="n"/>
+      <c r="C706" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n"/>
+      <c r="B707" s="1" t="n"/>
+      <c r="C707" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D707" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n"/>
+      <c r="B708" s="1" t="n"/>
+      <c r="C708" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D708" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n"/>
+      <c r="B709" s="1" t="n"/>
+      <c r="C709" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n"/>
+      <c r="B710" s="1" t="n"/>
+      <c r="C710" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n"/>
+      <c r="B711" s="1" t="n"/>
+      <c r="C711" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n"/>
+      <c r="B712" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C712" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n"/>
+      <c r="B713" s="1" t="n"/>
+      <c r="C713" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n"/>
+      <c r="B714" s="1" t="n"/>
+      <c r="C714" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n"/>
+      <c r="B715" s="1" t="n"/>
+      <c r="C715" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n"/>
+      <c r="B716" s="1" t="n"/>
+      <c r="C716" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n"/>
+      <c r="B717" s="1" t="n"/>
+      <c r="C717" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D717" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n"/>
+      <c r="B718" s="1" t="n"/>
+      <c r="C718" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n"/>
+      <c r="B719" s="1" t="n"/>
+      <c r="C719" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D719" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n"/>
+      <c r="B720" s="1" t="n"/>
+      <c r="C720" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n"/>
+      <c r="B721" s="1" t="n"/>
+      <c r="C721" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D721" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n"/>
+      <c r="B722" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C722" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D722" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n"/>
+      <c r="B723" s="1" t="n"/>
+      <c r="C723" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n"/>
+      <c r="B724" s="1" t="n"/>
+      <c r="C724" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D724" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n"/>
+      <c r="B725" s="1" t="n"/>
+      <c r="C725" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n"/>
+      <c r="B726" s="1" t="n"/>
+      <c r="C726" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n"/>
+      <c r="B727" s="1" t="n"/>
+      <c r="C727" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D727" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n"/>
+      <c r="B728" s="1" t="n"/>
+      <c r="C728" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n"/>
+      <c r="B729" s="1" t="n"/>
+      <c r="C729" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D729" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n"/>
+      <c r="B730" s="1" t="n"/>
+      <c r="C730" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n"/>
+      <c r="B731" s="1" t="n"/>
+      <c r="C731" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n"/>
+      <c r="B732" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C732" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n"/>
+      <c r="B733" s="1" t="n"/>
+      <c r="C733" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D733" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n"/>
+      <c r="B734" s="1" t="n"/>
+      <c r="C734" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n"/>
+      <c r="B735" s="1" t="n"/>
+      <c r="C735" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n"/>
+      <c r="B736" s="1" t="n"/>
+      <c r="C736" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n"/>
+      <c r="B737" s="1" t="n"/>
+      <c r="C737" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n"/>
+      <c r="B738" s="1" t="n"/>
+      <c r="C738" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n"/>
+      <c r="B739" s="1" t="n"/>
+      <c r="C739" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n"/>
+      <c r="B740" s="1" t="n"/>
+      <c r="C740" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n"/>
+      <c r="B741" s="1" t="n"/>
+      <c r="C741" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n"/>
+      <c r="B742" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C742" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n"/>
+      <c r="B743" s="1" t="n"/>
+      <c r="C743" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n"/>
+      <c r="B744" s="1" t="n"/>
+      <c r="C744" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n"/>
+      <c r="B745" s="1" t="n"/>
+      <c r="C745" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n"/>
+      <c r="B746" s="1" t="n"/>
+      <c r="C746" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n"/>
+      <c r="B747" s="1" t="n"/>
+      <c r="C747" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n"/>
+      <c r="B748" s="1" t="n"/>
+      <c r="C748" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n"/>
+      <c r="B749" s="1" t="n"/>
+      <c r="C749" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n"/>
+      <c r="B750" s="1" t="n"/>
+      <c r="C750" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n"/>
+      <c r="B751" s="1" t="n"/>
+      <c r="C751" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n"/>
+      <c r="B752" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C752" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n"/>
+      <c r="B753" s="1" t="n"/>
+      <c r="C753" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n"/>
+      <c r="B754" s="1" t="n"/>
+      <c r="C754" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D754" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n"/>
+      <c r="B755" s="1" t="n"/>
+      <c r="C755" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n"/>
+      <c r="B756" s="1" t="n"/>
+      <c r="C756" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n"/>
+      <c r="B757" s="1" t="n"/>
+      <c r="C757" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D757" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n"/>
+      <c r="B758" s="1" t="n"/>
+      <c r="C758" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n"/>
+      <c r="B759" s="1" t="n"/>
+      <c r="C759" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D759" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n"/>
+      <c r="B760" s="1" t="n"/>
+      <c r="C760" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D760" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n"/>
+      <c r="B761" s="1" t="n"/>
+      <c r="C761" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D761" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n"/>
+      <c r="B762" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C762" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n"/>
+      <c r="B763" s="1" t="n"/>
+      <c r="C763" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n"/>
+      <c r="B764" s="1" t="n"/>
+      <c r="C764" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D764" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n"/>
+      <c r="B765" s="1" t="n"/>
+      <c r="C765" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n"/>
+      <c r="B766" s="1" t="n"/>
+      <c r="C766" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n"/>
+      <c r="B767" s="1" t="n"/>
+      <c r="C767" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D767" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n"/>
+      <c r="B768" s="1" t="n"/>
+      <c r="C768" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n"/>
+      <c r="B769" s="1" t="n"/>
+      <c r="C769" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D769" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n"/>
+      <c r="B770" s="1" t="n"/>
+      <c r="C770" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D770" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n"/>
+      <c r="B771" s="1" t="n"/>
+      <c r="C771" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D771" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n"/>
+      <c r="B772" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C772" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n"/>
+      <c r="B773" s="1" t="n"/>
+      <c r="C773" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D773" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n"/>
+      <c r="B774" s="1" t="n"/>
+      <c r="C774" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n"/>
+      <c r="B775" s="1" t="n"/>
+      <c r="C775" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D775" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n"/>
+      <c r="B776" s="1" t="n"/>
+      <c r="C776" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D776" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n"/>
+      <c r="B777" s="1" t="n"/>
+      <c r="C777" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n"/>
+      <c r="B778" s="1" t="n"/>
+      <c r="C778" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D778" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n"/>
+      <c r="B779" s="1" t="n"/>
+      <c r="C779" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n"/>
+      <c r="B780" s="1" t="n"/>
+      <c r="C780" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n"/>
+      <c r="B781" s="1" t="n"/>
+      <c r="C781" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n"/>
+      <c r="B782" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C782" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D782" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n"/>
+      <c r="B783" s="1" t="n"/>
+      <c r="C783" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D783" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n"/>
+      <c r="B784" s="1" t="n"/>
+      <c r="C784" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n"/>
+      <c r="B785" s="1" t="n"/>
+      <c r="C785" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n"/>
+      <c r="B786" s="1" t="n"/>
+      <c r="C786" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n"/>
+      <c r="B787" s="1" t="n"/>
+      <c r="C787" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n"/>
+      <c r="B788" s="1" t="n"/>
+      <c r="C788" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n"/>
+      <c r="B789" s="1" t="n"/>
+      <c r="C789" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D789" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n"/>
+      <c r="B790" s="1" t="n"/>
+      <c r="C790" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n"/>
+      <c r="B791" s="1" t="n"/>
+      <c r="C791" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n"/>
+      <c r="B792" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C792" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D792" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n"/>
+      <c r="B793" s="1" t="n"/>
+      <c r="C793" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D793" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n"/>
+      <c r="B794" s="1" t="n"/>
+      <c r="C794" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D794" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n"/>
+      <c r="B795" s="1" t="n"/>
+      <c r="C795" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D795" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n"/>
+      <c r="B796" s="1" t="n"/>
+      <c r="C796" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D796" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n"/>
+      <c r="B797" s="1" t="n"/>
+      <c r="C797" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D797" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n"/>
+      <c r="B798" s="1" t="n"/>
+      <c r="C798" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D798" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n"/>
+      <c r="B799" s="1" t="n"/>
+      <c r="C799" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D799" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n"/>
+      <c r="B800" s="1" t="n"/>
+      <c r="C800" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D800" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n"/>
+      <c r="B801" s="1" t="n"/>
+      <c r="C801" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D801" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B802" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C802" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D802" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n"/>
+      <c r="B803" s="1" t="n"/>
+      <c r="C803" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D803" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n"/>
+      <c r="B804" s="1" t="n"/>
+      <c r="C804" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D804" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n"/>
+      <c r="B805" s="1" t="n"/>
+      <c r="C805" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D805" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n"/>
+      <c r="B806" s="1" t="n"/>
+      <c r="C806" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D806" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n"/>
+      <c r="B807" s="1" t="n"/>
+      <c r="C807" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D807" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n"/>
+      <c r="B808" s="1" t="n"/>
+      <c r="C808" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D808" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n"/>
+      <c r="B809" s="1" t="n"/>
+      <c r="C809" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D809" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n"/>
+      <c r="B810" s="1" t="n"/>
+      <c r="C810" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D810" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n"/>
+      <c r="B811" s="1" t="n"/>
+      <c r="C811" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D811" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n"/>
+      <c r="B812" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C812" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D812" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n"/>
+      <c r="B813" s="1" t="n"/>
+      <c r="C813" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D813" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n"/>
+      <c r="B814" s="1" t="n"/>
+      <c r="C814" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D814" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n"/>
+      <c r="B815" s="1" t="n"/>
+      <c r="C815" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D815" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n"/>
+      <c r="B816" s="1" t="n"/>
+      <c r="C816" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D816" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n"/>
+      <c r="B817" s="1" t="n"/>
+      <c r="C817" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D817" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n"/>
+      <c r="B818" s="1" t="n"/>
+      <c r="C818" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D818" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n"/>
+      <c r="B819" s="1" t="n"/>
+      <c r="C819" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D819" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n"/>
+      <c r="B820" s="1" t="n"/>
+      <c r="C820" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D820" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n"/>
+      <c r="B821" s="1" t="n"/>
+      <c r="C821" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D821" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n"/>
+      <c r="B822" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C822" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D822" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n"/>
+      <c r="B823" s="1" t="n"/>
+      <c r="C823" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D823" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n"/>
+      <c r="B824" s="1" t="n"/>
+      <c r="C824" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D824" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n"/>
+      <c r="B825" s="1" t="n"/>
+      <c r="C825" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D825" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n"/>
+      <c r="B826" s="1" t="n"/>
+      <c r="C826" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D826" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n"/>
+      <c r="B827" s="1" t="n"/>
+      <c r="C827" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D827" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n"/>
+      <c r="B828" s="1" t="n"/>
+      <c r="C828" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D828" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n"/>
+      <c r="B829" s="1" t="n"/>
+      <c r="C829" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D829" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n"/>
+      <c r="B830" s="1" t="n"/>
+      <c r="C830" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D830" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n"/>
+      <c r="B831" s="1" t="n"/>
+      <c r="C831" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D831" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n"/>
+      <c r="B832" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C832" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D832" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n"/>
+      <c r="B833" s="1" t="n"/>
+      <c r="C833" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D833" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n"/>
+      <c r="B834" s="1" t="n"/>
+      <c r="C834" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D834" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n"/>
+      <c r="B835" s="1" t="n"/>
+      <c r="C835" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D835" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n"/>
+      <c r="B836" s="1" t="n"/>
+      <c r="C836" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D836" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n"/>
+      <c r="B837" s="1" t="n"/>
+      <c r="C837" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D837" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n"/>
+      <c r="B838" s="1" t="n"/>
+      <c r="C838" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D838" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n"/>
+      <c r="B839" s="1" t="n"/>
+      <c r="C839" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D839" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n"/>
+      <c r="B840" s="1" t="n"/>
+      <c r="C840" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D840" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n"/>
+      <c r="B841" s="1" t="n"/>
+      <c r="C841" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D841" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n"/>
+      <c r="B842" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C842" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D842" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n"/>
+      <c r="B843" s="1" t="n"/>
+      <c r="C843" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D843" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n"/>
+      <c r="B844" s="1" t="n"/>
+      <c r="C844" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D844" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n"/>
+      <c r="B845" s="1" t="n"/>
+      <c r="C845" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D845" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n"/>
+      <c r="B846" s="1" t="n"/>
+      <c r="C846" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D846" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n"/>
+      <c r="B847" s="1" t="n"/>
+      <c r="C847" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D847" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n"/>
+      <c r="B848" s="1" t="n"/>
+      <c r="C848" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D848" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n"/>
+      <c r="B849" s="1" t="n"/>
+      <c r="C849" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D849" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n"/>
+      <c r="B850" s="1" t="n"/>
+      <c r="C850" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D850" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n"/>
+      <c r="B851" s="1" t="n"/>
+      <c r="C851" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D851" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n"/>
+      <c r="B852" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C852" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D852" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n"/>
+      <c r="B853" s="1" t="n"/>
+      <c r="C853" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D853" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n"/>
+      <c r="B854" s="1" t="n"/>
+      <c r="C854" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D854" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n"/>
+      <c r="B855" s="1" t="n"/>
+      <c r="C855" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D855" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n"/>
+      <c r="B856" s="1" t="n"/>
+      <c r="C856" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D856" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n"/>
+      <c r="B857" s="1" t="n"/>
+      <c r="C857" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D857" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n"/>
+      <c r="B858" s="1" t="n"/>
+      <c r="C858" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D858" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n"/>
+      <c r="B859" s="1" t="n"/>
+      <c r="C859" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D859" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n"/>
+      <c r="B860" s="1" t="n"/>
+      <c r="C860" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D860" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n"/>
+      <c r="B861" s="1" t="n"/>
+      <c r="C861" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D861" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n"/>
+      <c r="B862" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C862" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D862" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n"/>
+      <c r="B863" s="1" t="n"/>
+      <c r="C863" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D863" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n"/>
+      <c r="B864" s="1" t="n"/>
+      <c r="C864" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D864" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n"/>
+      <c r="B865" s="1" t="n"/>
+      <c r="C865" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D865" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n"/>
+      <c r="B866" s="1" t="n"/>
+      <c r="C866" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D866" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n"/>
+      <c r="B867" s="1" t="n"/>
+      <c r="C867" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D867" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n"/>
+      <c r="B868" s="1" t="n"/>
+      <c r="C868" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D868" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n"/>
+      <c r="B869" s="1" t="n"/>
+      <c r="C869" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D869" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n"/>
+      <c r="B870" s="1" t="n"/>
+      <c r="C870" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D870" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n"/>
+      <c r="B871" s="1" t="n"/>
+      <c r="C871" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D871" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n"/>
+      <c r="B872" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C872" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D872" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n"/>
+      <c r="B873" s="1" t="n"/>
+      <c r="C873" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D873" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n"/>
+      <c r="B874" s="1" t="n"/>
+      <c r="C874" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D874" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n"/>
+      <c r="B875" s="1" t="n"/>
+      <c r="C875" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D875" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n"/>
+      <c r="B876" s="1" t="n"/>
+      <c r="C876" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D876" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n"/>
+      <c r="B877" s="1" t="n"/>
+      <c r="C877" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D877" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n"/>
+      <c r="B878" s="1" t="n"/>
+      <c r="C878" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D878" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n"/>
+      <c r="B879" s="1" t="n"/>
+      <c r="C879" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D879" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n"/>
+      <c r="B880" s="1" t="n"/>
+      <c r="C880" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D880" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n"/>
+      <c r="B881" s="1" t="n"/>
+      <c r="C881" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D881" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n"/>
+      <c r="B882" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C882" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D882" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n"/>
+      <c r="B883" s="1" t="n"/>
+      <c r="C883" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D883" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n"/>
+      <c r="B884" s="1" t="n"/>
+      <c r="C884" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D884" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n"/>
+      <c r="B885" s="1" t="n"/>
+      <c r="C885" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D885" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n"/>
+      <c r="B886" s="1" t="n"/>
+      <c r="C886" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D886" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n"/>
+      <c r="B887" s="1" t="n"/>
+      <c r="C887" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D887" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n"/>
+      <c r="B888" s="1" t="n"/>
+      <c r="C888" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D888" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n"/>
+      <c r="B889" s="1" t="n"/>
+      <c r="C889" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D889" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n"/>
+      <c r="B890" s="1" t="n"/>
+      <c r="C890" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D890" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n"/>
+      <c r="B891" s="1" t="n"/>
+      <c r="C891" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D891" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n"/>
+      <c r="B892" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C892" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D892" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n"/>
+      <c r="B893" s="1" t="n"/>
+      <c r="C893" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D893" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n"/>
+      <c r="B894" s="1" t="n"/>
+      <c r="C894" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D894" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n"/>
+      <c r="B895" s="1" t="n"/>
+      <c r="C895" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D895" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n"/>
+      <c r="B896" s="1" t="n"/>
+      <c r="C896" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D896" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n"/>
+      <c r="B897" s="1" t="n"/>
+      <c r="C897" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D897" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n"/>
+      <c r="B898" s="1" t="n"/>
+      <c r="C898" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D898" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n"/>
+      <c r="B899" s="1" t="n"/>
+      <c r="C899" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D899" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n"/>
+      <c r="B900" s="1" t="n"/>
+      <c r="C900" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D900" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n"/>
+      <c r="B901" s="1" t="n"/>
+      <c r="C901" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D901" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B902" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C902" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D902" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n"/>
+      <c r="B903" s="1" t="n"/>
+      <c r="C903" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D903" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n"/>
+      <c r="B904" s="1" t="n"/>
+      <c r="C904" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D904" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n"/>
+      <c r="B905" s="1" t="n"/>
+      <c r="C905" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D905" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n"/>
+      <c r="B906" s="1" t="n"/>
+      <c r="C906" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D906" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n"/>
+      <c r="B907" s="1" t="n"/>
+      <c r="C907" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D907" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n"/>
+      <c r="B908" s="1" t="n"/>
+      <c r="C908" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D908" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n"/>
+      <c r="B909" s="1" t="n"/>
+      <c r="C909" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D909" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n"/>
+      <c r="B910" s="1" t="n"/>
+      <c r="C910" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D910" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n"/>
+      <c r="B911" s="1" t="n"/>
+      <c r="C911" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D911" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n"/>
+      <c r="B912" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C912" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D912" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n"/>
+      <c r="B913" s="1" t="n"/>
+      <c r="C913" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D913" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n"/>
+      <c r="B914" s="1" t="n"/>
+      <c r="C914" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D914" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n"/>
+      <c r="B915" s="1" t="n"/>
+      <c r="C915" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D915" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n"/>
+      <c r="B916" s="1" t="n"/>
+      <c r="C916" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D916" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n"/>
+      <c r="B917" s="1" t="n"/>
+      <c r="C917" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D917" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n"/>
+      <c r="B918" s="1" t="n"/>
+      <c r="C918" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D918" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n"/>
+      <c r="B919" s="1" t="n"/>
+      <c r="C919" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D919" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n"/>
+      <c r="B920" s="1" t="n"/>
+      <c r="C920" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D920" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n"/>
+      <c r="B921" s="1" t="n"/>
+      <c r="C921" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D921" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n"/>
+      <c r="B922" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C922" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D922" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n"/>
+      <c r="B923" s="1" t="n"/>
+      <c r="C923" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D923" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n"/>
+      <c r="B924" s="1" t="n"/>
+      <c r="C924" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D924" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n"/>
+      <c r="B925" s="1" t="n"/>
+      <c r="C925" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D925" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n"/>
+      <c r="B926" s="1" t="n"/>
+      <c r="C926" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D926" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n"/>
+      <c r="B927" s="1" t="n"/>
+      <c r="C927" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D927" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n"/>
+      <c r="B928" s="1" t="n"/>
+      <c r="C928" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D928" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n"/>
+      <c r="B929" s="1" t="n"/>
+      <c r="C929" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D929" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n"/>
+      <c r="B930" s="1" t="n"/>
+      <c r="C930" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D930" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n"/>
+      <c r="B931" s="1" t="n"/>
+      <c r="C931" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D931" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n"/>
+      <c r="B932" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C932" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D932" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n"/>
+      <c r="B933" s="1" t="n"/>
+      <c r="C933" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D933" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n"/>
+      <c r="B934" s="1" t="n"/>
+      <c r="C934" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D934" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n"/>
+      <c r="B935" s="1" t="n"/>
+      <c r="C935" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D935" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n"/>
+      <c r="B936" s="1" t="n"/>
+      <c r="C936" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D936" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n"/>
+      <c r="B937" s="1" t="n"/>
+      <c r="C937" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D937" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="n"/>
+      <c r="B938" s="1" t="n"/>
+      <c r="C938" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D938" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n"/>
+      <c r="B939" s="1" t="n"/>
+      <c r="C939" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D939" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n"/>
+      <c r="B940" s="1" t="n"/>
+      <c r="C940" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D940" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n"/>
+      <c r="B941" s="1" t="n"/>
+      <c r="C941" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D941" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="n"/>
+      <c r="B942" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C942" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D942" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n"/>
+      <c r="B943" s="1" t="n"/>
+      <c r="C943" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D943" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n"/>
+      <c r="B944" s="1" t="n"/>
+      <c r="C944" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D944" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n"/>
+      <c r="B945" s="1" t="n"/>
+      <c r="C945" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D945" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="1" t="n"/>
+      <c r="B946" s="1" t="n"/>
+      <c r="C946" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D946" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="n"/>
+      <c r="B947" s="1" t="n"/>
+      <c r="C947" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D947" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="n"/>
+      <c r="B948" s="1" t="n"/>
+      <c r="C948" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D948" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="1" t="n"/>
+      <c r="B949" s="1" t="n"/>
+      <c r="C949" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D949" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="1" t="n"/>
+      <c r="B950" s="1" t="n"/>
+      <c r="C950" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D950" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="1" t="n"/>
+      <c r="B951" s="1" t="n"/>
+      <c r="C951" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D951" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="1" t="n"/>
+      <c r="B952" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C952" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D952" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="1" t="n"/>
+      <c r="B953" s="1" t="n"/>
+      <c r="C953" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D953" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="1" t="n"/>
+      <c r="B954" s="1" t="n"/>
+      <c r="C954" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D954" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="1" t="n"/>
+      <c r="B955" s="1" t="n"/>
+      <c r="C955" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D955" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="1" t="n"/>
+      <c r="B956" s="1" t="n"/>
+      <c r="C956" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D956" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="1" t="n"/>
+      <c r="B957" s="1" t="n"/>
+      <c r="C957" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D957" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="1" t="n"/>
+      <c r="B958" s="1" t="n"/>
+      <c r="C958" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D958" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n"/>
+      <c r="B959" s="1" t="n"/>
+      <c r="C959" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D959" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n"/>
+      <c r="B960" s="1" t="n"/>
+      <c r="C960" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D960" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n"/>
+      <c r="B961" s="1" t="n"/>
+      <c r="C961" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D961" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="n"/>
+      <c r="B962" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C962" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D962" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n"/>
+      <c r="B963" s="1" t="n"/>
+      <c r="C963" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D963" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n"/>
+      <c r="B964" s="1" t="n"/>
+      <c r="C964" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D964" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n"/>
+      <c r="B965" s="1" t="n"/>
+      <c r="C965" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D965" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="n"/>
+      <c r="B966" s="1" t="n"/>
+      <c r="C966" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D966" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n"/>
+      <c r="B967" s="1" t="n"/>
+      <c r="C967" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D967" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n"/>
+      <c r="B968" s="1" t="n"/>
+      <c r="C968" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D968" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="n"/>
+      <c r="B969" s="1" t="n"/>
+      <c r="C969" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D969" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="n"/>
+      <c r="B970" s="1" t="n"/>
+      <c r="C970" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D970" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n"/>
+      <c r="B971" s="1" t="n"/>
+      <c r="C971" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D971" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n"/>
+      <c r="B972" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C972" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D972" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n"/>
+      <c r="B973" s="1" t="n"/>
+      <c r="C973" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D973" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="n"/>
+      <c r="B974" s="1" t="n"/>
+      <c r="C974" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D974" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="n"/>
+      <c r="B975" s="1" t="n"/>
+      <c r="C975" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D975" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n"/>
+      <c r="B976" s="1" t="n"/>
+      <c r="C976" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D976" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n"/>
+      <c r="B977" s="1" t="n"/>
+      <c r="C977" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D977" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n"/>
+      <c r="B978" s="1" t="n"/>
+      <c r="C978" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D978" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="n"/>
+      <c r="B979" s="1" t="n"/>
+      <c r="C979" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D979" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n"/>
+      <c r="B980" s="1" t="n"/>
+      <c r="C980" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D980" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n"/>
+      <c r="B981" s="1" t="n"/>
+      <c r="C981" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D981" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n"/>
+      <c r="B982" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C982" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D982" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n"/>
+      <c r="B983" s="1" t="n"/>
+      <c r="C983" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D983" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n"/>
+      <c r="B984" s="1" t="n"/>
+      <c r="C984" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D984" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n"/>
+      <c r="B985" s="1" t="n"/>
+      <c r="C985" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D985" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n"/>
+      <c r="B986" s="1" t="n"/>
+      <c r="C986" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D986" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n"/>
+      <c r="B987" s="1" t="n"/>
+      <c r="C987" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D987" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n"/>
+      <c r="B988" s="1" t="n"/>
+      <c r="C988" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D988" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n"/>
+      <c r="B989" s="1" t="n"/>
+      <c r="C989" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D989" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n"/>
+      <c r="B990" s="1" t="n"/>
+      <c r="C990" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D990" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n"/>
+      <c r="B991" s="1" t="n"/>
+      <c r="C991" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D991" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n"/>
+      <c r="B992" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C992" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D992" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n"/>
+      <c r="B993" s="1" t="n"/>
+      <c r="C993" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D993" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n"/>
+      <c r="B994" s="1" t="n"/>
+      <c r="C994" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D994" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n"/>
+      <c r="B995" s="1" t="n"/>
+      <c r="C995" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D995" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n"/>
+      <c r="B996" s="1" t="n"/>
+      <c r="C996" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D996" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n"/>
+      <c r="B997" s="1" t="n"/>
+      <c r="C997" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D997" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n"/>
+      <c r="B998" s="1" t="n"/>
+      <c r="C998" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D998" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n"/>
+      <c r="B999" s="1" t="n"/>
+      <c r="C999" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D999" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n"/>
+      <c r="B1000" s="1" t="n"/>
+      <c r="C1000" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n"/>
+      <c r="B1001" s="1" t="n"/>
+      <c r="C1001" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="B162:B166"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="B187:B191"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B177:B181"/>
-    <mergeCell ref="B192:B196"/>
-    <mergeCell ref="B217:B221"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="A102:A126"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B207:B211"/>
-    <mergeCell ref="A202:A226"/>
-    <mergeCell ref="B197:B201"/>
-    <mergeCell ref="A152:A176"/>
-    <mergeCell ref="A52:A76"/>
-    <mergeCell ref="A127:A151"/>
-    <mergeCell ref="B212:B216"/>
-    <mergeCell ref="A77:A101"/>
-    <mergeCell ref="B222:B226"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B237:B241"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B227:B231"/>
-    <mergeCell ref="B242:B246"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B202:B206"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B232:B236"/>
-    <mergeCell ref="B247:B251"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="A227:A251"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="A177:A201"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="B182:B186"/>
-    <mergeCell ref="A27:A51"/>
-    <mergeCell ref="B172:B176"/>
+  <mergeCells count="110">
+    <mergeCell ref="B952:B961"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="B202:B211"/>
+    <mergeCell ref="B302:B311"/>
+    <mergeCell ref="B842:B851"/>
+    <mergeCell ref="B382:B391"/>
+    <mergeCell ref="B292:B301"/>
+    <mergeCell ref="B592:B601"/>
+    <mergeCell ref="A502:A601"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="B82:B91"/>
+    <mergeCell ref="B812:B821"/>
+    <mergeCell ref="B352:B361"/>
+    <mergeCell ref="B892:B901"/>
+    <mergeCell ref="B342:B351"/>
+    <mergeCell ref="B762:B771"/>
+    <mergeCell ref="B392:B401"/>
+    <mergeCell ref="B602:B611"/>
+    <mergeCell ref="B742:B751"/>
+    <mergeCell ref="B502:B511"/>
+    <mergeCell ref="B92:B101"/>
+    <mergeCell ref="A2:A101"/>
+    <mergeCell ref="B692:B701"/>
+    <mergeCell ref="B142:B151"/>
+    <mergeCell ref="B982:B991"/>
+    <mergeCell ref="B252:B261"/>
+    <mergeCell ref="A102:A201"/>
+    <mergeCell ref="A802:A901"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="B122:B131"/>
+    <mergeCell ref="B442:B451"/>
+    <mergeCell ref="B242:B251"/>
+    <mergeCell ref="B802:B811"/>
+    <mergeCell ref="B662:B671"/>
+    <mergeCell ref="B832:B841"/>
+    <mergeCell ref="B72:B81"/>
+    <mergeCell ref="B552:B561"/>
+    <mergeCell ref="B932:B941"/>
+    <mergeCell ref="A402:A501"/>
+    <mergeCell ref="B362:B371"/>
+    <mergeCell ref="B882:B891"/>
+    <mergeCell ref="B542:B551"/>
+    <mergeCell ref="B922:B931"/>
+    <mergeCell ref="B332:B341"/>
+    <mergeCell ref="B412:B421"/>
+    <mergeCell ref="B632:B641"/>
+    <mergeCell ref="B172:B181"/>
+    <mergeCell ref="B672:B681"/>
+    <mergeCell ref="A702:A801"/>
+    <mergeCell ref="B712:B721"/>
+    <mergeCell ref="B752:B761"/>
+    <mergeCell ref="B162:B171"/>
+    <mergeCell ref="B972:B981"/>
+    <mergeCell ref="B422:B431"/>
+    <mergeCell ref="B462:B471"/>
+    <mergeCell ref="B722:B731"/>
+    <mergeCell ref="A202:A301"/>
+    <mergeCell ref="B772:B781"/>
+    <mergeCell ref="B572:B581"/>
+    <mergeCell ref="B522:B531"/>
+    <mergeCell ref="B232:B241"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="B792:B801"/>
+    <mergeCell ref="B102:B111"/>
+    <mergeCell ref="B872:B881"/>
+    <mergeCell ref="B282:B291"/>
+    <mergeCell ref="B322:B331"/>
+    <mergeCell ref="B152:B161"/>
+    <mergeCell ref="B272:B281"/>
+    <mergeCell ref="B992:B1001"/>
+    <mergeCell ref="B402:B411"/>
+    <mergeCell ref="B582:B591"/>
+    <mergeCell ref="B962:B971"/>
+    <mergeCell ref="B622:B631"/>
+    <mergeCell ref="B452:B461"/>
+    <mergeCell ref="B372:B381"/>
+    <mergeCell ref="A602:A701"/>
+    <mergeCell ref="B702:B711"/>
+    <mergeCell ref="B192:B201"/>
+    <mergeCell ref="A302:A401"/>
+    <mergeCell ref="A902:A1001"/>
+    <mergeCell ref="B222:B231"/>
+    <mergeCell ref="B212:B221"/>
+    <mergeCell ref="B492:B501"/>
+    <mergeCell ref="B482:B491"/>
+    <mergeCell ref="B562:B571"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="B512:B521"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="B432:B441"/>
+    <mergeCell ref="B612:B621"/>
+    <mergeCell ref="B782:B791"/>
+    <mergeCell ref="B862:B871"/>
+    <mergeCell ref="B312:B321"/>
+    <mergeCell ref="B732:B741"/>
+    <mergeCell ref="B852:B861"/>
+    <mergeCell ref="B912:B921"/>
+    <mergeCell ref="B262:B271"/>
+    <mergeCell ref="B642:B651"/>
+    <mergeCell ref="B182:B191"/>
+    <mergeCell ref="B682:B691"/>
+    <mergeCell ref="B822:B831"/>
+    <mergeCell ref="B532:B541"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="B902:B911"/>
+    <mergeCell ref="B942:B951"/>
+    <mergeCell ref="B112:B121"/>
+    <mergeCell ref="B472:B481"/>
+    <mergeCell ref="B652:B661"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
